--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.662869</v>
+        <v>7.4435605</v>
       </c>
       <c r="H2">
-        <v>9.325737999999999</v>
+        <v>14.887121</v>
       </c>
       <c r="I2">
-        <v>0.12780197298571</v>
+        <v>0.2067115545668386</v>
       </c>
       <c r="J2">
-        <v>0.09206001612981021</v>
+        <v>0.1544115568814123</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.945352666666667</v>
+        <v>0.6065375000000001</v>
       </c>
       <c r="N2">
-        <v>14.836058</v>
+        <v>1.213075</v>
       </c>
       <c r="O2">
-        <v>0.455333475299675</v>
+        <v>0.03501222831579698</v>
       </c>
       <c r="P2">
-        <v>0.4643150580045728</v>
+        <v>0.02395907277050269</v>
       </c>
       <c r="Q2">
-        <v>23.05953164346733</v>
+        <v>4.514798576768751</v>
       </c>
       <c r="R2">
-        <v>138.357189860804</v>
+        <v>18.059194307075</v>
       </c>
       <c r="S2">
-        <v>0.05819251650973851</v>
+        <v>0.00723743214400748</v>
       </c>
       <c r="T2">
-        <v>0.04274485172921474</v>
+        <v>0.003699557727928373</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.662869</v>
+        <v>7.4435605</v>
       </c>
       <c r="H3">
-        <v>9.325737999999999</v>
+        <v>14.887121</v>
       </c>
       <c r="I3">
-        <v>0.12780197298571</v>
+        <v>0.2067115545668386</v>
       </c>
       <c r="J3">
-        <v>0.09206001612981021</v>
+        <v>0.1544115568814123</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6302735</v>
+        <v>5.210433333333333</v>
       </c>
       <c r="N3">
-        <v>1.260547</v>
+        <v>15.6313</v>
       </c>
       <c r="O3">
-        <v>0.05803117441525701</v>
+        <v>0.3007709852909436</v>
       </c>
       <c r="P3">
-        <v>0.03945057059108897</v>
+        <v>0.3087290185665014</v>
       </c>
       <c r="Q3">
-        <v>2.9388827646715</v>
+        <v>38.78417574788334</v>
       </c>
       <c r="R3">
-        <v>11.755531058686</v>
+        <v>232.7050544873</v>
       </c>
       <c r="S3">
-        <v>0.007416498584947701</v>
+        <v>0.06217283793809072</v>
       </c>
       <c r="T3">
-        <v>0.003631820164945867</v>
+        <v>0.04767132841132391</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.662869</v>
+        <v>7.4435605</v>
       </c>
       <c r="H4">
-        <v>9.325737999999999</v>
+        <v>14.887121</v>
       </c>
       <c r="I4">
-        <v>0.12780197298571</v>
+        <v>0.2067115545668386</v>
       </c>
       <c r="J4">
-        <v>0.09206001612981021</v>
+        <v>0.1544115568814123</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.013841</v>
+        <v>0.7331004999999999</v>
       </c>
       <c r="N4">
-        <v>0.041523</v>
+        <v>1.466201</v>
       </c>
       <c r="O4">
-        <v>0.001274382446797418</v>
+        <v>0.04231804642651924</v>
       </c>
       <c r="P4">
-        <v>0.001299520004136131</v>
+        <v>0.02895848686617382</v>
       </c>
       <c r="Q4">
-        <v>0.064538769829</v>
+        <v>5.45687792433025</v>
       </c>
       <c r="R4">
-        <v>0.387232618974</v>
+        <v>21.827511697321</v>
       </c>
       <c r="S4">
-        <v>0.0001628685910390666</v>
+        <v>0.008747629163057442</v>
       </c>
       <c r="T4">
-        <v>0.0001196338325417832</v>
+        <v>0.004471525041935829</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.662869</v>
+        <v>7.4435605</v>
       </c>
       <c r="H5">
-        <v>9.325737999999999</v>
+        <v>14.887121</v>
       </c>
       <c r="I5">
-        <v>0.12780197298571</v>
+        <v>0.2067115545668386</v>
       </c>
       <c r="J5">
-        <v>0.09206001612981021</v>
+        <v>0.1544115568814123</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.271479666666667</v>
+        <v>3.883082333333333</v>
       </c>
       <c r="N5">
-        <v>15.814439</v>
+        <v>11.649247</v>
       </c>
       <c r="O5">
-        <v>0.4853609678382705</v>
+        <v>0.2241499746078426</v>
       </c>
       <c r="P5">
-        <v>0.494934851400202</v>
+        <v>0.2300807094322775</v>
       </c>
       <c r="Q5">
-        <v>24.58021912183033</v>
+        <v>28.90395827464783</v>
       </c>
       <c r="R5">
-        <v>147.481314730982</v>
+        <v>173.423749647887</v>
       </c>
       <c r="S5">
-        <v>0.06203008929998471</v>
+        <v>0.04633438970730454</v>
       </c>
       <c r="T5">
-        <v>0.04556371040310782</v>
+        <v>0.03552712055181782</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,25 +782,25 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.353525666666666</v>
+        <v>7.4435605</v>
       </c>
       <c r="H6">
-        <v>10.060577</v>
+        <v>14.887121</v>
       </c>
       <c r="I6">
-        <v>0.09191491261243204</v>
+        <v>0.2067115545668386</v>
       </c>
       <c r="J6">
-        <v>0.09931405760007385</v>
+        <v>0.1544115568814123</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.945352666666667</v>
+        <v>6.890436666666667</v>
       </c>
       <c r="N6">
-        <v>14.836058</v>
+        <v>20.67131</v>
       </c>
       <c r="O6">
-        <v>0.455333475299675</v>
+        <v>0.3977487653588976</v>
       </c>
       <c r="P6">
-        <v>0.4643150580045728</v>
+        <v>0.4082727123645446</v>
       </c>
       <c r="Q6">
-        <v>16.58436709838511</v>
+        <v>51.28938219975167</v>
       </c>
       <c r="R6">
-        <v>149.259303885466</v>
+        <v>307.7362931985101</v>
       </c>
       <c r="S6">
-        <v>0.04185193659168461</v>
+        <v>0.08221926561437846</v>
       </c>
       <c r="T6">
-        <v>0.04611301241524778</v>
+        <v>0.06304202514840636</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.353525666666666</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H7">
         <v>10.060577</v>
       </c>
       <c r="I7">
-        <v>0.09191491261243204</v>
+        <v>0.0931291555750048</v>
       </c>
       <c r="J7">
-        <v>0.09931405760007385</v>
+        <v>0.1043498845542619</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6302735</v>
+        <v>0.6065375000000001</v>
       </c>
       <c r="N7">
-        <v>1.260547</v>
+        <v>1.213075</v>
       </c>
       <c r="O7">
-        <v>0.05803117441525701</v>
+        <v>0.03501222831579698</v>
       </c>
       <c r="P7">
-        <v>0.03945057059108897</v>
+        <v>0.02395907277050269</v>
       </c>
       <c r="Q7">
-        <v>2.113638359269833</v>
+        <v>2.034039074045833</v>
       </c>
       <c r="R7">
-        <v>12.681830155619</v>
+        <v>12.204234444275</v>
       </c>
       <c r="S7">
-        <v>0.00533393032517515</v>
+        <v>0.003260659257849445</v>
       </c>
       <c r="T7">
-        <v>0.00391799624003919</v>
+        <v>0.002500126477629116</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.353525666666666</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H8">
         <v>10.060577</v>
       </c>
       <c r="I8">
-        <v>0.09191491261243204</v>
+        <v>0.0931291555750048</v>
       </c>
       <c r="J8">
-        <v>0.09931405760007385</v>
+        <v>0.1043498845542619</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.013841</v>
+        <v>5.210433333333333</v>
       </c>
       <c r="N8">
-        <v>0.041523</v>
+        <v>15.6313</v>
       </c>
       <c r="O8">
-        <v>0.001274382446797418</v>
+        <v>0.3007709852909436</v>
       </c>
       <c r="P8">
-        <v>0.001299520004136131</v>
+        <v>0.3087290185665014</v>
       </c>
       <c r="Q8">
-        <v>0.04641614875233333</v>
+        <v>17.47332191778889</v>
       </c>
       <c r="R8">
-        <v>0.417745338771</v>
+        <v>157.2598972601</v>
       </c>
       <c r="S8">
-        <v>0.000117134751232202</v>
+        <v>0.02801054788160777</v>
       </c>
       <c r="T8">
-        <v>0.0001290606045432239</v>
+        <v>0.032215837445965</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.353525666666666</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H9">
         <v>10.060577</v>
       </c>
       <c r="I9">
-        <v>0.09191491261243204</v>
+        <v>0.0931291555750048</v>
       </c>
       <c r="J9">
-        <v>0.09931405760007385</v>
+        <v>0.1043498845542619</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.271479666666667</v>
+        <v>0.7331004999999999</v>
       </c>
       <c r="N9">
-        <v>15.814439</v>
+        <v>1.466201</v>
       </c>
       <c r="O9">
-        <v>0.4853609678382705</v>
+        <v>0.04231804642651924</v>
       </c>
       <c r="P9">
-        <v>0.494934851400202</v>
+        <v>0.02895848686617382</v>
       </c>
       <c r="Q9">
-        <v>17.67804236347811</v>
+        <v>2.458471342996166</v>
       </c>
       <c r="R9">
-        <v>159.102381271303</v>
+        <v>14.750828057977</v>
       </c>
       <c r="S9">
-        <v>0.04461191094434008</v>
+        <v>0.003941043929285586</v>
       </c>
       <c r="T9">
-        <v>0.04915398834024366</v>
+        <v>0.003021814761351348</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.115279</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H10">
-        <v>39.345837</v>
+        <v>10.060577</v>
       </c>
       <c r="I10">
-        <v>0.3594693594132817</v>
+        <v>0.0931291555750048</v>
       </c>
       <c r="J10">
-        <v>0.3884066214235145</v>
+        <v>0.1043498845542619</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.945352666666667</v>
+        <v>3.883082333333333</v>
       </c>
       <c r="N10">
-        <v>14.836058</v>
+        <v>11.649247</v>
       </c>
       <c r="O10">
-        <v>0.455333475299675</v>
+        <v>0.2241499746078426</v>
       </c>
       <c r="P10">
-        <v>0.4643150580045728</v>
+        <v>0.2300807094322775</v>
       </c>
       <c r="Q10">
-        <v>64.85967997672734</v>
+        <v>13.02201627061322</v>
       </c>
       <c r="R10">
-        <v>583.737119790546</v>
+        <v>117.198146435519</v>
       </c>
       <c r="S10">
-        <v>0.1636784326853975</v>
+        <v>0.02087489785738714</v>
       </c>
       <c r="T10">
-        <v>0.1803430429556193</v>
+        <v>0.02400889546742084</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.115279</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H11">
-        <v>39.345837</v>
+        <v>10.060577</v>
       </c>
       <c r="I11">
-        <v>0.3594693594132817</v>
+        <v>0.0931291555750048</v>
       </c>
       <c r="J11">
-        <v>0.3884066214235145</v>
+        <v>0.1043498845542619</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6302735</v>
+        <v>6.890436666666667</v>
       </c>
       <c r="N11">
-        <v>1.260547</v>
+        <v>20.67131</v>
       </c>
       <c r="O11">
-        <v>0.05803117441525701</v>
+        <v>0.3977487653588976</v>
       </c>
       <c r="P11">
-        <v>0.03945057059108897</v>
+        <v>0.4082727123645446</v>
       </c>
       <c r="Q11">
-        <v>8.2662127988065</v>
+        <v>23.10725621620778</v>
       </c>
       <c r="R11">
-        <v>49.597276792839</v>
+        <v>207.96530594587</v>
       </c>
       <c r="S11">
-        <v>0.02086042909305286</v>
+        <v>0.03704200664887486</v>
       </c>
       <c r="T11">
-        <v>0.01532286283651473</v>
+        <v>0.0426032104018956</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.115279</v>
+        <v>7.233823666666666</v>
       </c>
       <c r="H12">
-        <v>39.345837</v>
+        <v>21.701471</v>
       </c>
       <c r="I12">
-        <v>0.3594693594132817</v>
+        <v>0.2008870533932055</v>
       </c>
       <c r="J12">
-        <v>0.3884066214235145</v>
+        <v>0.2250910652050735</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.013841</v>
+        <v>0.6065375000000001</v>
       </c>
       <c r="N12">
-        <v>0.041523</v>
+        <v>1.213075</v>
       </c>
       <c r="O12">
-        <v>0.001274382446797418</v>
+        <v>0.03501222831579698</v>
       </c>
       <c r="P12">
-        <v>0.001299520004136131</v>
+        <v>0.02395907277050269</v>
       </c>
       <c r="Q12">
-        <v>0.181528576639</v>
+        <v>4.387585322220834</v>
       </c>
       <c r="R12">
-        <v>1.633757189751</v>
+        <v>26.325511933325</v>
       </c>
       <c r="S12">
-        <v>0.0004581014417977984</v>
+        <v>0.007033503379090609</v>
       </c>
       <c r="T12">
-        <v>0.0005047421742787861</v>
+        <v>0.005392973211238322</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.115279</v>
+        <v>7.233823666666666</v>
       </c>
       <c r="H13">
-        <v>39.345837</v>
+        <v>21.701471</v>
       </c>
       <c r="I13">
-        <v>0.3594693594132817</v>
+        <v>0.2008870533932055</v>
       </c>
       <c r="J13">
-        <v>0.3884066214235145</v>
+        <v>0.2250910652050735</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,95 +1243,95 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.271479666666667</v>
+        <v>5.210433333333333</v>
       </c>
       <c r="N13">
-        <v>15.814439</v>
+        <v>15.6313</v>
       </c>
       <c r="O13">
-        <v>0.4853609678382705</v>
+        <v>0.3007709852909436</v>
       </c>
       <c r="P13">
-        <v>0.494934851400202</v>
+        <v>0.3087290185665014</v>
       </c>
       <c r="Q13">
-        <v>69.13692657116033</v>
+        <v>37.69135596025555</v>
       </c>
       <c r="R13">
-        <v>622.2323391404429</v>
+        <v>339.2222036423</v>
       </c>
       <c r="S13">
-        <v>0.1744723961930335</v>
+        <v>0.06042099698126881</v>
       </c>
       <c r="T13">
-        <v>0.1922359734571017</v>
+        <v>0.0694921436488507</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.233823666666666</v>
+      </c>
+      <c r="H14">
+        <v>21.701471</v>
+      </c>
+      <c r="I14">
+        <v>0.2008870533932055</v>
+      </c>
+      <c r="J14">
+        <v>0.2250910652050735</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>3.491826000000001</v>
-      </c>
-      <c r="H14">
-        <v>6.983652000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.09570550923107637</v>
-      </c>
-      <c r="J14">
-        <v>0.06893986468041258</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.945352666666667</v>
+        <v>0.7331004999999999</v>
       </c>
       <c r="N14">
-        <v>14.836058</v>
+        <v>1.466201</v>
       </c>
       <c r="O14">
-        <v>0.455333475299675</v>
+        <v>0.04231804642651924</v>
       </c>
       <c r="P14">
-        <v>0.4643150580045728</v>
+        <v>0.02895848686617382</v>
       </c>
       <c r="Q14">
-        <v>17.26831102063601</v>
+        <v>5.303119746945166</v>
       </c>
       <c r="R14">
-        <v>103.609866123816</v>
+        <v>31.818718481671</v>
       </c>
       <c r="S14">
-        <v>0.04357792212351113</v>
+        <v>0.008501147651980319</v>
       </c>
       <c r="T14">
-        <v>0.03200981726791317</v>
+        <v>0.006518296655434195</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.491826000000001</v>
+        <v>7.233823666666666</v>
       </c>
       <c r="H15">
-        <v>6.983652000000001</v>
+        <v>21.701471</v>
       </c>
       <c r="I15">
-        <v>0.09570550923107637</v>
+        <v>0.2008870533932055</v>
       </c>
       <c r="J15">
-        <v>0.06893986468041258</v>
+        <v>0.2250910652050735</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6302735</v>
+        <v>3.883082333333333</v>
       </c>
       <c r="N15">
-        <v>1.260547</v>
+        <v>11.649247</v>
       </c>
       <c r="O15">
-        <v>0.05803117441525701</v>
+        <v>0.2241499746078426</v>
       </c>
       <c r="P15">
-        <v>0.03945057059108897</v>
+        <v>0.2300807094322775</v>
       </c>
       <c r="Q15">
-        <v>2.200805394411001</v>
+        <v>28.08953288248188</v>
       </c>
       <c r="R15">
-        <v>8.803221577644003</v>
+        <v>252.8057959423369</v>
       </c>
       <c r="S15">
-        <v>0.005553903098689582</v>
+        <v>0.04502882791713132</v>
       </c>
       <c r="T15">
-        <v>0.002719716998114738</v>
+        <v>0.05178911196925035</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.491826000000001</v>
+        <v>7.233823666666666</v>
       </c>
       <c r="H16">
-        <v>6.983652000000001</v>
+        <v>21.701471</v>
       </c>
       <c r="I16">
-        <v>0.09570550923107637</v>
+        <v>0.2008870533932055</v>
       </c>
       <c r="J16">
-        <v>0.06893986468041258</v>
+        <v>0.2250910652050735</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.013841</v>
+        <v>6.890436666666667</v>
       </c>
       <c r="N16">
-        <v>0.041523</v>
+        <v>20.67131</v>
       </c>
       <c r="O16">
-        <v>0.001274382446797418</v>
+        <v>0.3977487653588976</v>
       </c>
       <c r="P16">
-        <v>0.001299520004136131</v>
+        <v>0.4082727123645446</v>
       </c>
       <c r="Q16">
-        <v>0.04833036366600001</v>
+        <v>49.84420383300111</v>
       </c>
       <c r="R16">
-        <v>0.2899821819960001</v>
+        <v>448.59783449701</v>
       </c>
       <c r="S16">
-        <v>0.000121965421025892</v>
+        <v>0.07990257746373443</v>
       </c>
       <c r="T16">
-        <v>8.958873323463406E-05</v>
+        <v>0.09189853972029992</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.491826000000001</v>
+        <v>4.1726995</v>
       </c>
       <c r="H17">
-        <v>6.983652000000001</v>
+        <v>8.345399</v>
       </c>
       <c r="I17">
-        <v>0.09570550923107637</v>
+        <v>0.1158780398688598</v>
       </c>
       <c r="J17">
-        <v>0.06893986468041258</v>
+        <v>0.08655978898717766</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.271479666666667</v>
+        <v>0.6065375000000001</v>
       </c>
       <c r="N17">
-        <v>15.814439</v>
+        <v>1.213075</v>
       </c>
       <c r="O17">
-        <v>0.4853609678382705</v>
+        <v>0.03501222831579698</v>
       </c>
       <c r="P17">
-        <v>0.494934851400202</v>
+        <v>0.02395907277050269</v>
       </c>
       <c r="Q17">
-        <v>18.407089758538</v>
+        <v>2.530898722981251</v>
       </c>
       <c r="R17">
-        <v>110.442538551228</v>
+        <v>10.123594891925</v>
       </c>
       <c r="S17">
-        <v>0.04645171858784976</v>
+        <v>0.004057148388675546</v>
       </c>
       <c r="T17">
-        <v>0.03412074168115004</v>
+        <v>0.002073892283343147</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.035661333333334</v>
+        <v>4.1726995</v>
       </c>
       <c r="H18">
-        <v>12.106984</v>
+        <v>8.345399</v>
       </c>
       <c r="I18">
-        <v>0.1106111882410038</v>
+        <v>0.1158780398688598</v>
       </c>
       <c r="J18">
-        <v>0.1195153823025432</v>
+        <v>0.08655978898717766</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.945352666666667</v>
+        <v>5.210433333333333</v>
       </c>
       <c r="N18">
-        <v>14.836058</v>
+        <v>15.6313</v>
       </c>
       <c r="O18">
-        <v>0.455333475299675</v>
+        <v>0.3007709852909436</v>
       </c>
       <c r="P18">
-        <v>0.4643150580045728</v>
+        <v>0.3087290185665014</v>
       </c>
       <c r="Q18">
-        <v>19.95776853656356</v>
+        <v>21.74157256478334</v>
       </c>
       <c r="R18">
-        <v>179.619916829072</v>
+        <v>130.4494353887</v>
       </c>
       <c r="S18">
-        <v>0.0503649767488028</v>
+        <v>0.03485275222494023</v>
       </c>
       <c r="T18">
-        <v>0.05549279166624402</v>
+        <v>0.02672351870133481</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,22 +1591,22 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.035661333333334</v>
+        <v>4.1726995</v>
       </c>
       <c r="H19">
-        <v>12.106984</v>
+        <v>8.345399</v>
       </c>
       <c r="I19">
-        <v>0.1106111882410038</v>
+        <v>0.1158780398688598</v>
       </c>
       <c r="J19">
-        <v>0.1195153823025432</v>
+        <v>0.08655978898717766</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6302735</v>
+        <v>0.7331004999999999</v>
       </c>
       <c r="N19">
-        <v>1.260547</v>
+        <v>1.466201</v>
       </c>
       <c r="O19">
-        <v>0.05803117441525701</v>
+        <v>0.04231804642651924</v>
       </c>
       <c r="P19">
-        <v>0.03945057059108897</v>
+        <v>0.02895848686617382</v>
       </c>
       <c r="Q19">
-        <v>2.543570393374667</v>
+        <v>3.05900808979975</v>
       </c>
       <c r="R19">
-        <v>15.261422360248</v>
+        <v>12.236032359199</v>
       </c>
       <c r="S19">
-        <v>0.006418897157092516</v>
+        <v>0.004903732270984459</v>
       </c>
       <c r="T19">
-        <v>0.004714950026247465</v>
+        <v>0.002506640512523962</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.035661333333334</v>
+        <v>4.1726995</v>
       </c>
       <c r="H20">
-        <v>12.106984</v>
+        <v>8.345399</v>
       </c>
       <c r="I20">
-        <v>0.1106111882410038</v>
+        <v>0.1158780398688598</v>
       </c>
       <c r="J20">
-        <v>0.1195153823025432</v>
+        <v>0.08655978898717766</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.013841</v>
+        <v>3.883082333333333</v>
       </c>
       <c r="N20">
-        <v>0.041523</v>
+        <v>11.649247</v>
       </c>
       <c r="O20">
-        <v>0.001274382446797418</v>
+        <v>0.2241499746078426</v>
       </c>
       <c r="P20">
-        <v>0.001299520004136131</v>
+        <v>0.2300807094322775</v>
       </c>
       <c r="Q20">
-        <v>0.05585758851466667</v>
+        <v>16.20293571075883</v>
       </c>
       <c r="R20">
-        <v>0.5027182966320001</v>
+        <v>97.21761426455299</v>
       </c>
       <c r="S20">
-        <v>0.0001409609567137402</v>
+        <v>0.0259740596942115</v>
       </c>
       <c r="T20">
-        <v>0.0001553126301041322</v>
+        <v>0.01991573765847808</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.035661333333334</v>
+        <v>4.1726995</v>
       </c>
       <c r="H21">
-        <v>12.106984</v>
+        <v>8.345399</v>
       </c>
       <c r="I21">
-        <v>0.1106111882410038</v>
+        <v>0.1158780398688598</v>
       </c>
       <c r="J21">
-        <v>0.1195153823025432</v>
+        <v>0.08655978898717766</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.271479666666667</v>
+        <v>6.890436666666667</v>
       </c>
       <c r="N21">
-        <v>15.814439</v>
+        <v>20.67131</v>
       </c>
       <c r="O21">
-        <v>0.4853609678382705</v>
+        <v>0.3977487653588976</v>
       </c>
       <c r="P21">
-        <v>0.494934851400202</v>
+        <v>0.4082727123645446</v>
       </c>
       <c r="Q21">
-        <v>21.27390666021956</v>
+        <v>28.75172163378167</v>
       </c>
       <c r="R21">
-        <v>191.465159941976</v>
+        <v>172.51032980269</v>
       </c>
       <c r="S21">
-        <v>0.05368635337839472</v>
+        <v>0.04609034729004812</v>
       </c>
       <c r="T21">
-        <v>0.05915232797994754</v>
+        <v>0.03533999983149766</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.825948666666666</v>
+        <v>2.611491666666666</v>
       </c>
       <c r="H22">
-        <v>23.477846</v>
+        <v>7.834474999999999</v>
       </c>
       <c r="I22">
-        <v>0.2144970575164961</v>
+        <v>0.0725224846570416</v>
       </c>
       <c r="J22">
-        <v>0.2317640578636458</v>
+        <v>0.08126040502381235</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.945352666666667</v>
+        <v>0.6065375000000001</v>
       </c>
       <c r="N22">
-        <v>14.836058</v>
+        <v>1.213075</v>
       </c>
       <c r="O22">
-        <v>0.455333475299675</v>
+        <v>0.03501222831579698</v>
       </c>
       <c r="P22">
-        <v>0.4643150580045728</v>
+        <v>0.02395907277050269</v>
       </c>
       <c r="Q22">
-        <v>38.70207610789645</v>
+        <v>1.583967626770833</v>
       </c>
       <c r="R22">
-        <v>348.318684971068</v>
+        <v>9.503805760625001</v>
       </c>
       <c r="S22">
-        <v>0.09766769064054043</v>
+        <v>0.002539173790841224</v>
       </c>
       <c r="T22">
-        <v>0.1076115419703339</v>
+        <v>0.001946923957326043</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,51 +1845,51 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.825948666666666</v>
+        <v>2.611491666666666</v>
       </c>
       <c r="H23">
-        <v>23.477846</v>
+        <v>7.834474999999999</v>
       </c>
       <c r="I23">
-        <v>0.2144970575164961</v>
+        <v>0.0725224846570416</v>
       </c>
       <c r="J23">
-        <v>0.2317640578636458</v>
+        <v>0.08126040502381235</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.6302735</v>
+        <v>5.210433333333333</v>
       </c>
       <c r="N23">
-        <v>1.260547</v>
+        <v>15.6313</v>
       </c>
       <c r="O23">
-        <v>0.05803117441525701</v>
+        <v>0.3007709852909436</v>
       </c>
       <c r="P23">
-        <v>0.03945057059108897</v>
+        <v>0.3087290185665014</v>
       </c>
       <c r="Q23">
-        <v>4.932488056960334</v>
+        <v>13.60700322972222</v>
       </c>
       <c r="R23">
-        <v>29.594928341762</v>
+        <v>122.4630290675</v>
       </c>
       <c r="S23">
-        <v>0.0124475161562992</v>
+        <v>0.02181265916604574</v>
       </c>
       <c r="T23">
-        <v>0.009143224325226986</v>
+        <v>0.02508744509131798</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,108 +1907,480 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.825948666666666</v>
+        <v>2.611491666666666</v>
       </c>
       <c r="H24">
-        <v>23.477846</v>
+        <v>7.834474999999999</v>
       </c>
       <c r="I24">
-        <v>0.2144970575164961</v>
+        <v>0.0725224846570416</v>
       </c>
       <c r="J24">
-        <v>0.2317640578636458</v>
+        <v>0.08126040502381235</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.013841</v>
+        <v>0.7331004999999999</v>
       </c>
       <c r="N24">
-        <v>0.041523</v>
+        <v>1.466201</v>
       </c>
       <c r="O24">
-        <v>0.001274382446797418</v>
+        <v>0.04231804642651924</v>
       </c>
       <c r="P24">
-        <v>0.001299520004136131</v>
+        <v>0.02895848686617382</v>
       </c>
       <c r="Q24">
-        <v>0.1083189554953333</v>
+        <v>1.914485846579166</v>
       </c>
       <c r="R24">
-        <v>0.974870599458</v>
+        <v>11.486915079475</v>
       </c>
       <c r="S24">
-        <v>0.0002733512849887187</v>
+        <v>0.003069009872683216</v>
       </c>
       <c r="T24">
-        <v>0.0003011820294335714</v>
+        <v>0.002353178371622035</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.611491666666666</v>
+      </c>
+      <c r="H25">
+        <v>7.834474999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.0725224846570416</v>
+      </c>
+      <c r="J25">
+        <v>0.08126040502381235</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.883082333333333</v>
+      </c>
+      <c r="N25">
+        <v>11.649247</v>
+      </c>
+      <c r="O25">
+        <v>0.2241499746078426</v>
+      </c>
+      <c r="P25">
+        <v>0.2300807094322775</v>
+      </c>
+      <c r="Q25">
+        <v>10.14063715448055</v>
+      </c>
+      <c r="R25">
+        <v>91.26573439032498</v>
+      </c>
+      <c r="S25">
+        <v>0.01625591309437353</v>
+      </c>
+      <c r="T25">
+        <v>0.01869645163663295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.611491666666666</v>
+      </c>
+      <c r="H26">
+        <v>7.834474999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.0725224846570416</v>
+      </c>
+      <c r="J26">
+        <v>0.08126040502381235</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.890436666666667</v>
+      </c>
+      <c r="N26">
+        <v>20.67131</v>
+      </c>
+      <c r="O26">
+        <v>0.3977487653588976</v>
+      </c>
+      <c r="P26">
+        <v>0.4082727123645446</v>
+      </c>
+      <c r="Q26">
+        <v>17.99431793469444</v>
+      </c>
+      <c r="R26">
+        <v>161.94886141225</v>
+      </c>
+      <c r="S26">
+        <v>0.02884572873309789</v>
+      </c>
+      <c r="T26">
+        <v>0.03317640596691333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>7.825948666666666</v>
-      </c>
-      <c r="H25">
-        <v>23.477846</v>
-      </c>
-      <c r="I25">
-        <v>0.2144970575164961</v>
-      </c>
-      <c r="J25">
-        <v>0.2317640578636458</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>5.271479666666667</v>
-      </c>
-      <c r="N25">
-        <v>15.814439</v>
-      </c>
-      <c r="O25">
-        <v>0.4853609678382705</v>
-      </c>
-      <c r="P25">
-        <v>0.494934851400202</v>
-      </c>
-      <c r="Q25">
-        <v>41.25432926871044</v>
-      </c>
-      <c r="R25">
-        <v>371.288963418394</v>
-      </c>
-      <c r="S25">
-        <v>0.1041084994346677</v>
-      </c>
-      <c r="T25">
-        <v>0.1147081095386513</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>11.194306</v>
+      </c>
+      <c r="H27">
+        <v>33.582918</v>
+      </c>
+      <c r="I27">
+        <v>0.3108717119390497</v>
+      </c>
+      <c r="J27">
+        <v>0.3483272993482625</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.6065375000000001</v>
+      </c>
+      <c r="N27">
+        <v>1.213075</v>
+      </c>
+      <c r="O27">
+        <v>0.03501222831579698</v>
+      </c>
+      <c r="P27">
+        <v>0.02395907277050269</v>
+      </c>
+      <c r="Q27">
+        <v>6.789766375475001</v>
+      </c>
+      <c r="R27">
+        <v>40.73859825285</v>
+      </c>
+      <c r="S27">
+        <v>0.01088431135533268</v>
+      </c>
+      <c r="T27">
+        <v>0.008345599113037694</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>11.194306</v>
+      </c>
+      <c r="H28">
+        <v>33.582918</v>
+      </c>
+      <c r="I28">
+        <v>0.3108717119390497</v>
+      </c>
+      <c r="J28">
+        <v>0.3483272993482625</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.210433333333333</v>
+      </c>
+      <c r="N28">
+        <v>15.6313</v>
+      </c>
+      <c r="O28">
+        <v>0.3007709852909436</v>
+      </c>
+      <c r="P28">
+        <v>0.3087290185665014</v>
+      </c>
+      <c r="Q28">
+        <v>58.32718512593333</v>
+      </c>
+      <c r="R28">
+        <v>524.9446661334</v>
+      </c>
+      <c r="S28">
+        <v>0.0935011910989904</v>
+      </c>
+      <c r="T28">
+        <v>0.107538745267709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>11.194306</v>
+      </c>
+      <c r="H29">
+        <v>33.582918</v>
+      </c>
+      <c r="I29">
+        <v>0.3108717119390497</v>
+      </c>
+      <c r="J29">
+        <v>0.3483272993482625</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.7331004999999999</v>
+      </c>
+      <c r="N29">
+        <v>1.466201</v>
+      </c>
+      <c r="O29">
+        <v>0.04231804642651924</v>
+      </c>
+      <c r="P29">
+        <v>0.02895848686617382</v>
+      </c>
+      <c r="Q29">
+        <v>8.206551325752999</v>
+      </c>
+      <c r="R29">
+        <v>49.239307954518</v>
+      </c>
+      <c r="S29">
+        <v>0.01315548353852822</v>
+      </c>
+      <c r="T29">
+        <v>0.01008703152330646</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>11.194306</v>
+      </c>
+      <c r="H30">
+        <v>33.582918</v>
+      </c>
+      <c r="I30">
+        <v>0.3108717119390497</v>
+      </c>
+      <c r="J30">
+        <v>0.3483272993482625</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.883082333333333</v>
+      </c>
+      <c r="N30">
+        <v>11.649247</v>
+      </c>
+      <c r="O30">
+        <v>0.2241499746078426</v>
+      </c>
+      <c r="P30">
+        <v>0.2300807094322775</v>
+      </c>
+      <c r="Q30">
+        <v>43.46841186252733</v>
+      </c>
+      <c r="R30">
+        <v>391.215706762746</v>
+      </c>
+      <c r="S30">
+        <v>0.06968188633743454</v>
+      </c>
+      <c r="T30">
+        <v>0.08014339214867754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>11.194306</v>
+      </c>
+      <c r="H31">
+        <v>33.582918</v>
+      </c>
+      <c r="I31">
+        <v>0.3108717119390497</v>
+      </c>
+      <c r="J31">
+        <v>0.3483272993482625</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>6.890436666666667</v>
+      </c>
+      <c r="N31">
+        <v>20.67131</v>
+      </c>
+      <c r="O31">
+        <v>0.3977487653588976</v>
+      </c>
+      <c r="P31">
+        <v>0.4082727123645446</v>
+      </c>
+      <c r="Q31">
+        <v>77.13365652028666</v>
+      </c>
+      <c r="R31">
+        <v>694.2029086825801</v>
+      </c>
+      <c r="S31">
+        <v>0.1236488396087639</v>
+      </c>
+      <c r="T31">
+        <v>0.1422125312955318</v>
       </c>
     </row>
   </sheetData>
